--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H2">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I2">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J2">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N2">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O2">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P2">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q2">
-        <v>44.9260331361792</v>
+        <v>45.52184139310825</v>
       </c>
       <c r="R2">
-        <v>44.9260331361792</v>
+        <v>182.087365572433</v>
       </c>
       <c r="S2">
-        <v>0.05011316166290879</v>
+        <v>0.04539234493525632</v>
       </c>
       <c r="T2">
-        <v>0.05011316166290879</v>
+        <v>0.02879611776129326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H3">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I3">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J3">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N3">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P3">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q3">
-        <v>5.454438714764785</v>
+        <v>6.147676646314667</v>
       </c>
       <c r="R3">
-        <v>5.454438714764785</v>
+        <v>36.886059877888</v>
       </c>
       <c r="S3">
-        <v>0.0060842044136168</v>
+        <v>0.006130188286324086</v>
       </c>
       <c r="T3">
-        <v>0.0060842044136168</v>
+        <v>0.005833327977779172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H4">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I4">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J4">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N4">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O4">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P4">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q4">
-        <v>17.52243754224788</v>
+        <v>0.2354464922995</v>
       </c>
       <c r="R4">
-        <v>17.52243754224788</v>
+        <v>1.412678953797</v>
       </c>
       <c r="S4">
-        <v>0.01954556598890426</v>
+        <v>0.0002347767152027619</v>
       </c>
       <c r="T4">
-        <v>0.01954556598890426</v>
+        <v>0.0002234074252464095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.51459892396623</v>
+        <v>6.5816815</v>
       </c>
       <c r="H5">
-        <v>6.51459892396623</v>
+        <v>13.163363</v>
       </c>
       <c r="I5">
-        <v>0.08323049209816677</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J5">
-        <v>0.08323049209816677</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N5">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O5">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P5">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q5">
-        <v>6.712535369502462</v>
+        <v>0.4254179532216668</v>
       </c>
       <c r="R5">
-        <v>6.712535369502462</v>
+        <v>2.55250771933</v>
       </c>
       <c r="S5">
-        <v>0.007487560032736925</v>
+        <v>0.0004242077623251015</v>
       </c>
       <c r="T5">
-        <v>0.007487560032736925</v>
+        <v>0.0004036650903337832</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.6297596459858</v>
+        <v>6.5816815</v>
       </c>
       <c r="H6">
-        <v>52.6297596459858</v>
+        <v>13.163363</v>
       </c>
       <c r="I6">
-        <v>0.6723976173312529</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J6">
-        <v>0.6723976173312529</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N6">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O6">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P6">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q6">
-        <v>362.9458011768403</v>
+        <v>17.704407314288</v>
       </c>
       <c r="R6">
-        <v>362.9458011768403</v>
+        <v>106.226443885728</v>
       </c>
       <c r="S6">
-        <v>0.4048512708459396</v>
+        <v>0.01765404340181422</v>
       </c>
       <c r="T6">
-        <v>0.4048512708459396</v>
+        <v>0.016799129241507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.6297596459858</v>
+        <v>6.5816815</v>
       </c>
       <c r="H7">
-        <v>52.6297596459858</v>
+        <v>13.163363</v>
       </c>
       <c r="I7">
-        <v>0.6723976173312529</v>
+        <v>0.07705209841014855</v>
       </c>
       <c r="J7">
-        <v>0.6723976173312529</v>
+        <v>0.05663369382713547</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N7">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O7">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P7">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q7">
-        <v>44.06499953600496</v>
+        <v>7.237124833859</v>
       </c>
       <c r="R7">
-        <v>44.06499953600496</v>
+        <v>28.948499335436</v>
       </c>
       <c r="S7">
-        <v>0.04915271372235869</v>
+        <v>0.00721653730922607</v>
       </c>
       <c r="T7">
-        <v>0.04915271372235869</v>
+        <v>0.004578046330975847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H8">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I8">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J8">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N8">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O8">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P8">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q8">
-        <v>141.559240564705</v>
+        <v>391.1438242006146</v>
       </c>
       <c r="R8">
-        <v>141.559240564705</v>
+        <v>2346.862945203688</v>
       </c>
       <c r="S8">
-        <v>0.1579035719845212</v>
+        <v>0.3900311332769934</v>
       </c>
       <c r="T8">
-        <v>0.1579035719845212</v>
+        <v>0.37114349766798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.6297596459858</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H9">
-        <v>52.6297596459858</v>
+        <v>169.658168</v>
       </c>
       <c r="I9">
-        <v>0.6723976173312529</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J9">
-        <v>0.6723976173312529</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N9">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O9">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P9">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q9">
-        <v>54.2288369913967</v>
+        <v>52.82356073039644</v>
       </c>
       <c r="R9">
-        <v>54.2288369913967</v>
+        <v>475.412046573568</v>
       </c>
       <c r="S9">
-        <v>0.06049006077843337</v>
+        <v>0.05267329299525275</v>
       </c>
       <c r="T9">
-        <v>0.06049006077843337</v>
+        <v>0.07518380660422104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08782855237732159</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H10">
-        <v>0.08782855237732159</v>
+        <v>169.658168</v>
       </c>
       <c r="I10">
-        <v>0.001122097264920124</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J10">
-        <v>0.001122097264920124</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N10">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O10">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P10">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q10">
-        <v>0.6056840183806617</v>
+        <v>2.023060547954667</v>
       </c>
       <c r="R10">
-        <v>0.6056840183806617</v>
+        <v>18.207544931592</v>
       </c>
       <c r="S10">
-        <v>0.0006756158737128088</v>
+        <v>0.002017305526475686</v>
       </c>
       <c r="T10">
-        <v>0.0006756158737128088</v>
+        <v>0.002879423327070961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08782855237732159</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H11">
-        <v>0.08782855237732159</v>
+        <v>169.658168</v>
       </c>
       <c r="I11">
-        <v>0.001122097264920124</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J11">
-        <v>0.001122097264920124</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N11">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O11">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P11">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q11">
-        <v>0.07353567916303129</v>
+        <v>3.655379484097778</v>
       </c>
       <c r="R11">
-        <v>0.07353567916303129</v>
+        <v>32.89841535688</v>
       </c>
       <c r="S11">
-        <v>8.202605751365888E-05</v>
+        <v>0.003644980987885652</v>
       </c>
       <c r="T11">
-        <v>8.202605751365888E-05</v>
+        <v>0.005202703876781652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08782855237732159</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H12">
-        <v>0.08782855237732159</v>
+        <v>169.658168</v>
       </c>
       <c r="I12">
-        <v>0.001122097264920124</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J12">
-        <v>0.001122097264920124</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N12">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O12">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P12">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q12">
-        <v>0.2362340861531818</v>
+        <v>152.1241094426453</v>
       </c>
       <c r="R12">
-        <v>0.2362340861531818</v>
+        <v>1369.116984983808</v>
       </c>
       <c r="S12">
-        <v>0.000263509509370645</v>
+        <v>0.1516913603990251</v>
       </c>
       <c r="T12">
-        <v>0.000263509509370645</v>
+        <v>0.2165183389008802</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08782855237732159</v>
+        <v>56.55272266666666</v>
       </c>
       <c r="H13">
-        <v>0.08782855237732159</v>
+        <v>169.658168</v>
       </c>
       <c r="I13">
-        <v>0.001122097264920124</v>
+        <v>0.6620657581613207</v>
       </c>
       <c r="J13">
-        <v>0.001122097264920124</v>
+        <v>0.7299326731158832</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N13">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O13">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P13">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q13">
-        <v>0.09049709293938214</v>
+        <v>62.18458210614932</v>
       </c>
       <c r="R13">
-        <v>0.09049709293938214</v>
+        <v>373.107492636896</v>
       </c>
       <c r="S13">
-        <v>0.0001009458243230115</v>
+        <v>0.06200768497568818</v>
       </c>
       <c r="T13">
-        <v>0.0001009458243230115</v>
+        <v>0.0590049027389493</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1281,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.85525001844211</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H14">
-        <v>4.85525001844211</v>
+        <v>0.167125</v>
       </c>
       <c r="I14">
-        <v>0.0620306565317366</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J14">
-        <v>0.0620306565317366</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N14">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O14">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P14">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q14">
-        <v>33.48281694065739</v>
+        <v>0.3853036513958333</v>
       </c>
       <c r="R14">
-        <v>33.48281694065739</v>
+        <v>2.311821908375</v>
       </c>
       <c r="S14">
-        <v>0.03734871968755011</v>
+        <v>0.0003842075740728117</v>
       </c>
       <c r="T14">
-        <v>0.03734871968755011</v>
+        <v>0.0003656019499618855</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1343,421 +1346,1413 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.85525001844211</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H15">
-        <v>4.85525001844211</v>
+        <v>0.167125</v>
       </c>
       <c r="I15">
-        <v>0.0620306565317366</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J15">
-        <v>0.0620306565317366</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N15">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O15">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P15">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q15">
-        <v>4.065125724475124</v>
+        <v>0.05203485155555555</v>
       </c>
       <c r="R15">
-        <v>4.065125724475124</v>
+        <v>0.468313664</v>
       </c>
       <c r="S15">
-        <v>0.004534482312141134</v>
+        <v>5.188682746964247E-05</v>
       </c>
       <c r="T15">
-        <v>0.004534482312141134</v>
+        <v>7.406123634867049E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.85525001844211</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H16">
-        <v>4.85525001844211</v>
+        <v>0.167125</v>
       </c>
       <c r="I16">
-        <v>0.0620306565317366</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J16">
-        <v>0.0620306565317366</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N16">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O16">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P16">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q16">
-        <v>13.05925601761431</v>
+        <v>0.001992854208333333</v>
       </c>
       <c r="R16">
-        <v>13.05925601761431</v>
+        <v>0.017935687875</v>
       </c>
       <c r="S16">
-        <v>0.01456706863088243</v>
+        <v>1.987185115144288E-06</v>
       </c>
       <c r="T16">
-        <v>0.01456706863088243</v>
+        <v>2.83643062523659E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.85525001844211</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H17">
-        <v>4.85525001844211</v>
+        <v>0.167125</v>
       </c>
       <c r="I17">
-        <v>0.0620306565317366</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J17">
-        <v>0.0620306565317366</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N17">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O17">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P17">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q17">
-        <v>5.002769603616366</v>
+        <v>0.003600800972222223</v>
       </c>
       <c r="R17">
-        <v>5.002769603616366</v>
+        <v>0.03240720875000001</v>
       </c>
       <c r="S17">
-        <v>0.005580385901162932</v>
+        <v>3.590557736073099E-06</v>
       </c>
       <c r="T17">
-        <v>0.005580385901162932</v>
+        <v>5.125022247128907E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>14.1843447475603</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H18">
-        <v>14.1843447475603</v>
+        <v>0.167125</v>
       </c>
       <c r="I18">
-        <v>0.1812191367739234</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J18">
-        <v>0.1812191367739234</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N18">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O18">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P18">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q18">
-        <v>97.81820025781632</v>
+        <v>0.1498527426666666</v>
       </c>
       <c r="R18">
-        <v>97.81820025781632</v>
+        <v>1.348674684</v>
       </c>
       <c r="S18">
-        <v>0.1091122215984643</v>
+        <v>0.0001494264550038467</v>
       </c>
       <c r="T18">
-        <v>0.1091122215984643</v>
+        <v>0.0002132855011661425</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>14.1843447475603</v>
+        <v>0.05570833333333333</v>
       </c>
       <c r="H19">
-        <v>14.1843447475603</v>
+        <v>0.167125</v>
       </c>
       <c r="I19">
-        <v>0.1812191367739234</v>
+        <v>0.000652180446936753</v>
       </c>
       <c r="J19">
-        <v>0.1812191367739234</v>
+        <v>0.0007190340402266515</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N19">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O19">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P19">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q19">
-        <v>11.87604026550883</v>
+        <v>0.06125610341666667</v>
       </c>
       <c r="R19">
-        <v>11.87604026550883</v>
+        <v>0.3675366205</v>
       </c>
       <c r="S19">
-        <v>0.01324723961131087</v>
+        <v>6.108184753923482E-05</v>
       </c>
       <c r="T19">
-        <v>0.01324723961131087</v>
+        <v>5.81238998775874E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.1843447475603</v>
+        <v>0.09863033333333333</v>
       </c>
       <c r="H20">
-        <v>14.1843447475603</v>
+        <v>0.295891</v>
       </c>
       <c r="I20">
-        <v>0.1812191367739234</v>
+        <v>0.001154670603587511</v>
       </c>
       <c r="J20">
-        <v>0.1812191367739234</v>
+        <v>0.001273033365425305</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N20">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O20">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P20">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q20">
-        <v>38.15189512319477</v>
+        <v>0.6821713251468333</v>
       </c>
       <c r="R20">
-        <v>38.15189512319477</v>
+        <v>4.093027950881</v>
       </c>
       <c r="S20">
-        <v>0.04255688638833608</v>
+        <v>0.0006802307452504312</v>
       </c>
       <c r="T20">
-        <v>0.04255688638833608</v>
+        <v>0.0006472899121984879</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.09863033333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.295891</v>
+      </c>
+      <c r="I21">
+        <v>0.001154670603587511</v>
+      </c>
+      <c r="J21">
+        <v>0.001273033365425305</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N21">
+        <v>2.802176</v>
+      </c>
+      <c r="O21">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P21">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q21">
+        <v>0.09212651764622222</v>
+      </c>
+      <c r="R21">
+        <v>0.8291386588160001</v>
+      </c>
+      <c r="S21">
+        <v>9.186444437887797E-05</v>
+      </c>
+      <c r="T21">
+        <v>0.0001311237294506774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.09863033333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.295891</v>
+      </c>
+      <c r="I22">
+        <v>0.001154670603587511</v>
+      </c>
+      <c r="J22">
+        <v>0.001273033365425305</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.035773</v>
+      </c>
+      <c r="N22">
+        <v>0.107319</v>
+      </c>
+      <c r="O22">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P22">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q22">
+        <v>0.003528302914333333</v>
+      </c>
+      <c r="R22">
+        <v>0.031754726229</v>
+      </c>
+      <c r="S22">
+        <v>3.518265914166992E-06</v>
+      </c>
+      <c r="T22">
+        <v>5.02183571657071E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.09863033333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.295891</v>
+      </c>
+      <c r="I23">
+        <v>0.001154670603587511</v>
+      </c>
+      <c r="J23">
+        <v>0.001273033365425305</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N23">
+        <v>0.19391</v>
+      </c>
+      <c r="O23">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P23">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q23">
+        <v>0.00637513597888889</v>
+      </c>
+      <c r="R23">
+        <v>0.05737622381000001</v>
+      </c>
+      <c r="S23">
+        <v>6.357000562958298E-06</v>
+      </c>
+      <c r="T23">
+        <v>9.073734975169602E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.09863033333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.295891</v>
+      </c>
+      <c r="I24">
+        <v>0.001154670603587511</v>
+      </c>
+      <c r="J24">
+        <v>0.001273033365425305</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.689952</v>
+      </c>
+      <c r="N24">
+        <v>8.069856</v>
+      </c>
+      <c r="O24">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P24">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q24">
+        <v>0.2653108624106666</v>
+      </c>
+      <c r="R24">
+        <v>2.387797761696</v>
+      </c>
+      <c r="S24">
+        <v>0.0002645561298282316</v>
+      </c>
+      <c r="T24">
+        <v>0.0003776171142890116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.09863033333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.295891</v>
+      </c>
+      <c r="I25">
+        <v>0.001154670603587511</v>
+      </c>
+      <c r="J25">
+        <v>0.001273033365425305</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.099586</v>
+      </c>
+      <c r="N25">
+        <v>2.199172</v>
+      </c>
+      <c r="O25">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P25">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q25">
+        <v>0.1084525337086667</v>
+      </c>
+      <c r="R25">
+        <v>0.650715202252</v>
+      </c>
+      <c r="S25">
+        <v>0.000108144017652845</v>
+      </c>
+      <c r="T25">
+        <v>0.000102907038795388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>14.1843447475603</v>
-      </c>
-      <c r="H21">
-        <v>14.1843447475603</v>
-      </c>
-      <c r="I21">
-        <v>0.1812191367739234</v>
-      </c>
-      <c r="J21">
-        <v>0.1812191367739234</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.03038351982162</v>
-      </c>
-      <c r="N21">
-        <v>1.03038351982162</v>
-      </c>
-      <c r="O21">
-        <v>0.08996174171246844</v>
-      </c>
-      <c r="P21">
-        <v>0.08996174171246844</v>
-      </c>
-      <c r="Q21">
-        <v>14.61531506735449</v>
-      </c>
-      <c r="R21">
-        <v>14.61531506735449</v>
-      </c>
-      <c r="S21">
-        <v>0.01630278917581219</v>
-      </c>
-      <c r="T21">
-        <v>0.01630278917581219</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.885647333333334</v>
+      </c>
+      <c r="H26">
+        <v>14.656942</v>
+      </c>
+      <c r="I26">
+        <v>0.0571965354332749</v>
+      </c>
+      <c r="J26">
+        <v>0.06305962736650829</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9164455</v>
+      </c>
+      <c r="N26">
+        <v>13.832891</v>
+      </c>
+      <c r="O26">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P26">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q26">
+        <v>33.79131351322034</v>
+      </c>
+      <c r="R26">
+        <v>202.747881079322</v>
+      </c>
+      <c r="S26">
+        <v>0.03369518701059629</v>
+      </c>
+      <c r="T26">
+        <v>0.03206346492552437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.885647333333334</v>
+      </c>
+      <c r="H27">
+        <v>14.656942</v>
+      </c>
+      <c r="I27">
+        <v>0.0571965354332749</v>
+      </c>
+      <c r="J27">
+        <v>0.06305962736650829</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.802176</v>
+      </c>
+      <c r="O27">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P27">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q27">
+        <v>4.56348123397689</v>
+      </c>
+      <c r="R27">
+        <v>41.07133110579201</v>
+      </c>
+      <c r="S27">
+        <v>0.004550499451228461</v>
+      </c>
+      <c r="T27">
+        <v>0.006495205658104743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.885647333333334</v>
+      </c>
+      <c r="H28">
+        <v>14.656942</v>
+      </c>
+      <c r="I28">
+        <v>0.0571965354332749</v>
+      </c>
+      <c r="J28">
+        <v>0.06305962736650829</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.035773</v>
+      </c>
+      <c r="N28">
+        <v>0.107319</v>
+      </c>
+      <c r="O28">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P28">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q28">
+        <v>0.1747742620553334</v>
+      </c>
+      <c r="R28">
+        <v>1.572968358498</v>
+      </c>
+      <c r="S28">
+        <v>0.0001742770798859127</v>
+      </c>
+      <c r="T28">
+        <v>0.0002487563151001732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.885647333333334</v>
+      </c>
+      <c r="H29">
+        <v>14.656942</v>
+      </c>
+      <c r="I29">
+        <v>0.0571965354332749</v>
+      </c>
+      <c r="J29">
+        <v>0.06305962736650829</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N29">
+        <v>0.19391</v>
+      </c>
+      <c r="O29">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P29">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q29">
+        <v>0.3157919581355557</v>
+      </c>
+      <c r="R29">
+        <v>2.842127623220001</v>
+      </c>
+      <c r="S29">
+        <v>0.0003148936214526536</v>
+      </c>
+      <c r="T29">
+        <v>0.000449466889004506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.885647333333334</v>
+      </c>
+      <c r="H30">
+        <v>14.656942</v>
+      </c>
+      <c r="I30">
+        <v>0.0571965354332749</v>
+      </c>
+      <c r="J30">
+        <v>0.06305962736650829</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.689952</v>
+      </c>
+      <c r="N30">
+        <v>8.069856</v>
+      </c>
+      <c r="O30">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P30">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q30">
+        <v>13.14215681559467</v>
+      </c>
+      <c r="R30">
+        <v>118.279411340352</v>
+      </c>
+      <c r="S30">
+        <v>0.01310477118478379</v>
+      </c>
+      <c r="T30">
+        <v>0.01870523991044477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.885647333333334</v>
+      </c>
+      <c r="H31">
+        <v>14.656942</v>
+      </c>
+      <c r="I31">
+        <v>0.0571965354332749</v>
+      </c>
+      <c r="J31">
+        <v>0.06305962736650829</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.099586</v>
+      </c>
+      <c r="N31">
+        <v>2.199172</v>
+      </c>
+      <c r="O31">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P31">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q31">
+        <v>5.372189408670667</v>
+      </c>
+      <c r="R31">
+        <v>32.233136452024</v>
+      </c>
+      <c r="S31">
+        <v>0.005356907085327794</v>
+      </c>
+      <c r="T31">
+        <v>0.005097493668329727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>17.2441985</v>
+      </c>
+      <c r="H32">
+        <v>34.488397</v>
+      </c>
+      <c r="I32">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J32">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9164455</v>
+      </c>
+      <c r="N32">
+        <v>13.832891</v>
+      </c>
+      <c r="O32">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P32">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q32">
+        <v>119.2685591164317</v>
+      </c>
+      <c r="R32">
+        <v>477.074236465727</v>
+      </c>
+      <c r="S32">
+        <v>0.11892927460012</v>
+      </c>
+      <c r="T32">
+        <v>0.07544667281531575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>17.2441985</v>
+      </c>
+      <c r="H33">
+        <v>34.488397</v>
+      </c>
+      <c r="I33">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J33">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.802176</v>
+      </c>
+      <c r="O33">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P33">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q33">
+        <v>16.10709305864533</v>
+      </c>
+      <c r="R33">
+        <v>96.64255835187201</v>
+      </c>
+      <c r="S33">
+        <v>0.01606127304272432</v>
+      </c>
+      <c r="T33">
+        <v>0.01528349033061348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>17.2441985</v>
+      </c>
+      <c r="H34">
+        <v>34.488397</v>
+      </c>
+      <c r="I34">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J34">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.035773</v>
+      </c>
+      <c r="N34">
+        <v>0.107319</v>
+      </c>
+      <c r="O34">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P34">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q34">
+        <v>0.6168767129404999</v>
+      </c>
+      <c r="R34">
+        <v>3.701260277643</v>
+      </c>
+      <c r="S34">
+        <v>0.0006151218773096806</v>
+      </c>
+      <c r="T34">
+        <v>0.0005853340042849229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>17.2441985</v>
+      </c>
+      <c r="H35">
+        <v>34.488397</v>
+      </c>
+      <c r="I35">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J35">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N35">
+        <v>0.19391</v>
+      </c>
+      <c r="O35">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P35">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q35">
+        <v>1.114607510378333</v>
+      </c>
+      <c r="R35">
+        <v>6.687645062270001</v>
+      </c>
+      <c r="S35">
+        <v>0.001111436774747437</v>
+      </c>
+      <c r="T35">
+        <v>0.001057614371834339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>17.2441985</v>
+      </c>
+      <c r="H36">
+        <v>34.488397</v>
+      </c>
+      <c r="I36">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J36">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.689952</v>
+      </c>
+      <c r="N36">
+        <v>8.069856</v>
+      </c>
+      <c r="O36">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P36">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q36">
+        <v>46.38606624347199</v>
+      </c>
+      <c r="R36">
+        <v>278.316397460832</v>
+      </c>
+      <c r="S36">
+        <v>0.04625411131615827</v>
+      </c>
+      <c r="T36">
+        <v>0.04401421115070687</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>17.2441985</v>
+      </c>
+      <c r="H37">
+        <v>34.488397</v>
+      </c>
+      <c r="I37">
+        <v>0.2018787569447315</v>
+      </c>
+      <c r="J37">
+        <v>0.1483819382848211</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.099586</v>
+      </c>
+      <c r="N37">
+        <v>2.199172</v>
+      </c>
+      <c r="O37">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P37">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q37">
+        <v>18.961479251821</v>
+      </c>
+      <c r="R37">
+        <v>75.845917007284</v>
+      </c>
+      <c r="S37">
+        <v>0.01890753933367183</v>
+      </c>
+      <c r="T37">
+        <v>0.01199461561206573</v>
       </c>
     </row>
   </sheetData>
